--- a/WSC/Test Report/SLCM/WSC SLCM_Admission _New Screens.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Admission _New Screens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_Student Re-Reg. Tool" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="296">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Executed By</t>
   </si>
   <si>
     <t>S#</t>
@@ -57,9 +60,9 @@
   </si>
   <si>
     <t>url: wscdemo.eduleadonline.com
-SLCM Admin: eduadmin@gmail.com, PW: admin@123
-Trainer: trainer@test.com,  PW: admin@123
-Student: student@test.com, PW: admin@123</t>
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@test.com,  PW: erp@123
+Student: student@test.com, PW: erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -1289,10 +1292,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1333,6 +1336,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1477,7 +1481,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1487,12 +1491,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,16 +1816,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1836,7 +1834,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1860,16 +1858,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1878,89 +1876,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1979,9 +1977,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1997,26 +1992,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2551,10 +2558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2601,8 +2608,12 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2610,51 +2621,46 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="D5" s="19"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2662,560 +2668,573 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A11" s="9">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="E12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="3">
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3">
         <v>269</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A12" s="9">
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A13" s="9">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
+      <c r="E13" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="9">
-        <v>4</v>
+      <c r="A14" s="8">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
+      <c r="E14" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A15" s="9">
-        <v>5</v>
+      <c r="A15" s="8">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
+      <c r="E15" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="9">
-        <v>6</v>
+      <c r="A16" s="8">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
+      <c r="E16" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="9">
-        <v>7</v>
+      <c r="A17" s="8">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
+      <c r="E17" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="9">
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A18" s="8">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A19" s="8">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="9">
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="8">
         <v>9</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="9">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
+      <c r="E20" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:7">
-      <c r="A21" s="9">
-        <v>11</v>
+      <c r="A21" s="8">
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
+      <c r="E21" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A22" s="9">
-        <v>12</v>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="8">
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>30</v>
+      <c r="E22" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A23" s="9">
-        <v>13</v>
+    <row r="23" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A23" s="8">
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>30</v>
+      <c r="E23" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A24" s="9">
-        <v>14</v>
+      <c r="A24" s="8">
+        <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>30</v>
+      <c r="E24" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A25" s="9">
-        <v>15</v>
+      <c r="A25" s="8">
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>30</v>
+      <c r="E25" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A26" s="9">
-        <v>16</v>
+      <c r="A26" s="8">
+        <v>15</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>30</v>
+      <c r="E26" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A27" s="9">
-        <v>17</v>
+    <row r="27" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A27" s="8">
+        <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>30</v>
+      <c r="E27" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A28" s="9">
-        <v>18</v>
+      <c r="A28" s="8">
+        <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>30</v>
+      <c r="E28" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A29" s="9">
-        <v>19</v>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A29" s="8">
+        <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>30</v>
+      <c r="E29" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A30" s="9">
-        <v>20</v>
+      <c r="A30" s="8">
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>30</v>
+      <c r="E30" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A31" s="9">
-        <v>21</v>
+      <c r="A31" s="8">
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>30</v>
+      <c r="E31" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A32" s="9">
-        <v>22</v>
+      <c r="A32" s="8">
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>30</v>
+      <c r="E32" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A33" s="9">
-        <v>23</v>
+    <row r="33" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A33" s="8">
+        <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>30</v>
+      <c r="E33" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A34" s="9">
+    <row r="34" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A34" s="8">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A35" s="8">
         <v>24</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3">
+      <c r="D35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3">
         <v>271</v>
       </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="12"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:1">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:6">
+    <row r="37" s="1" customFormat="1" spans="1:1">
       <c r="A37" s="12"/>
-      <c r="B37" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14" t="s">
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:6">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A38" s="12"/>
-      <c r="B38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="F38" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A39" s="12"/>
+      <c r="B39" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="18" t="s">
+      <c r="C39" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="12">
+      <c r="E39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="21">
         <v>269</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:1">
-      <c r="A39" s="12"/>
+    <row r="40" s="1" customFormat="1" spans="1:1">
+      <c r="A40" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3225,10 +3244,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3251,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -3285,8 +3304,12 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3298,16 +3321,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3316,15 +3333,17 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:11">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3333,10 +3352,14 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
-      <c r="A6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:11">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3347,12 +3370,8 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3364,8 +3383,12 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3376,1055 +3399,1068 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:11">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:11">
-      <c r="A12" s="9">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
+      <c r="E12" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>30</v>
+        <v>110</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
-      <c r="A13" s="9">
-        <v>3</v>
+      <c r="A13" s="8">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
+      <c r="E13" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>30</v>
+        <v>113</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A14" s="9">
-        <v>4</v>
+    <row r="14" s="1" customFormat="1" spans="1:11">
+      <c r="A14" s="8">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
+      <c r="E14" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>30</v>
+        <v>116</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="90" spans="1:11">
-      <c r="A15" s="9">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A15" s="8">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
+      <c r="E15" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>30</v>
+        <v>119</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A16" s="9">
-        <v>6</v>
+    <row r="16" s="1" customFormat="1" ht="90" spans="1:11">
+      <c r="A16" s="8">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
+      <c r="E16" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>30</v>
+        <v>122</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A17" s="9">
-        <v>7</v>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A17" s="8">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
+      <c r="E17" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>30</v>
+        <v>125</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A18" s="9">
-        <v>8</v>
+      <c r="A18" s="8">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
+      <c r="E18" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>30</v>
+        <v>128</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A19" s="9">
-        <v>9</v>
+    <row r="19" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A19" s="8">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
+      <c r="E19" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>30</v>
+        <v>131</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A20" s="9">
-        <v>10</v>
+      <c r="A20" s="8">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
+      <c r="E20" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>30</v>
+        <v>134</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A21" s="9">
-        <v>11</v>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A21" s="8">
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
+      <c r="E21" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>30</v>
+        <v>137</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A22" s="9">
-        <v>12</v>
+    <row r="22" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A22" s="8">
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>30</v>
+      <c r="E22" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>30</v>
+        <v>140</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A23" s="9">
-        <v>13</v>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A23" s="8">
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>30</v>
+      <c r="E23" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>30</v>
+        <v>143</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A24" s="9">
-        <v>14</v>
+      <c r="A24" s="8">
+        <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>30</v>
+      <c r="E24" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>30</v>
+        <v>146</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A25" s="9">
-        <v>15</v>
+      <c r="A25" s="8">
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>30</v>
+      <c r="E25" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>30</v>
+        <v>149</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A26" s="9">
-        <v>16</v>
+      <c r="A26" s="8">
+        <v>15</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>30</v>
+      <c r="E26" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>30</v>
+        <v>152</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A27" s="9">
-        <v>17</v>
+      <c r="A27" s="8">
+        <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>30</v>
+      <c r="E27" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>30</v>
+        <v>155</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A28" s="9">
-        <v>18</v>
+      <c r="A28" s="8">
+        <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>30</v>
+      <c r="E28" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A29" s="9">
-        <v>19</v>
+      <c r="A29" s="8">
+        <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>30</v>
+      <c r="E29" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>30</v>
+        <v>161</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A30" s="9">
-        <v>20</v>
+      <c r="A30" s="8">
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>30</v>
+      <c r="E30" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>30</v>
+        <v>164</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A31" s="9">
-        <v>21</v>
+      <c r="A31" s="8">
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>30</v>
+      <c r="E31" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>30</v>
+        <v>167</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A32" s="9">
-        <v>22</v>
+      <c r="A32" s="8">
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>30</v>
+      <c r="E32" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>30</v>
+        <v>170</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A33" s="9">
-        <v>23</v>
+      <c r="A33" s="8">
+        <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>30</v>
+      <c r="E33" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>30</v>
+        <v>173</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="60" spans="1:11">
-      <c r="A34" s="9">
-        <v>24</v>
+    <row r="34" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A34" s="8">
+        <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>30</v>
+      <c r="E34" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>30</v>
+        <v>176</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A35" s="9">
-        <v>25</v>
+    <row r="35" s="1" customFormat="1" ht="60" spans="1:11">
+      <c r="A35" s="8">
+        <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>30</v>
+      <c r="E35" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>30</v>
+        <v>179</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A36" s="9">
-        <v>26</v>
+      <c r="A36" s="8">
+        <v>25</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>30</v>
+      <c r="E36" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>30</v>
+        <v>182</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A37" s="9">
-        <v>27</v>
+      <c r="A37" s="8">
+        <v>26</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>30</v>
+      <c r="E37" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>30</v>
+        <v>185</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="60" spans="1:11">
-      <c r="A38" s="9">
-        <v>28</v>
+    <row r="38" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A38" s="8">
+        <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>30</v>
+      <c r="E38" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>30</v>
+        <v>188</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A39" s="9">
-        <v>29</v>
+    <row r="39" s="1" customFormat="1" ht="60" spans="1:11">
+      <c r="A39" s="8">
+        <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>30</v>
+      <c r="E39" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>30</v>
+        <v>191</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A40" s="9">
-        <v>30</v>
+      <c r="A40" s="8">
+        <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>30</v>
+      <c r="E40" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>30</v>
+        <v>194</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A41" s="9">
-        <v>31</v>
+    <row r="41" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A41" s="8">
+        <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>30</v>
+      <c r="E41" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>30</v>
+        <v>197</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A42" s="9">
-        <v>32</v>
+      <c r="A42" s="8">
+        <v>31</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>30</v>
+      <c r="E42" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>30</v>
+        <v>200</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:11">
-      <c r="A43" s="9">
-        <v>33</v>
+    <row r="43" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A43" s="8">
+        <v>32</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>30</v>
+      <c r="E43" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>30</v>
+        <v>203</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:11">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
+        <v>33</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:11">
+      <c r="A45" s="8">
         <v>34</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="D45" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="3">
         <v>272</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:11">
-      <c r="A45" s="9">
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:11">
+      <c r="A46" s="8">
         <v>35</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="D46" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="3">
         <v>273</v>
       </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:1">
-      <c r="A46" s="12"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:1">
       <c r="A47" s="12"/>
-      <c r="B47" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14" t="s">
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:6">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="C48" s="13"/>
+      <c r="D48" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A48" s="12"/>
-      <c r="B48" s="16" t="s">
+      <c r="E48" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="3">
-        <v>272</v>
+      <c r="F48" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A49" s="12"/>
       <c r="B49" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="E49" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A50" s="12"/>
+      <c r="B50" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="D50" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="3">
         <v>274</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B48:C48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4434,10 +4470,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4456,13 +4492,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -4484,8 +4520,12 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4493,51 +4533,47 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -4545,367 +4581,380 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="9">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
+      <c r="E12" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="9">
-        <v>3</v>
+      <c r="A13" s="8">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
+      <c r="E13" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="9">
-        <v>4</v>
+      <c r="A14" s="8">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
+      <c r="E14" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A15" s="9">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="8">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
+      <c r="E15" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="9">
-        <v>6</v>
+    <row r="16" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A16" s="8">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
+      <c r="E16" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="9">
-        <v>7</v>
+      <c r="A17" s="8">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
+      <c r="E17" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="9">
-        <v>8</v>
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A18" s="8">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
+      <c r="E18" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="9">
-        <v>9</v>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="8">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
+      <c r="E19" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="9">
-        <v>10</v>
+      <c r="A20" s="8">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
+      <c r="E20" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:7">
-      <c r="A21" s="9">
-        <v>11</v>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A21" s="8">
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
+      <c r="E21" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="9">
-        <v>12</v>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="8">
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>30</v>
+      <c r="E22" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A23" s="9">
-        <v>13</v>
+      <c r="A23" s="8">
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>30</v>
+        <v>250</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
-      <c r="A24" s="9">
-        <v>14</v>
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A24" s="8">
+        <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>30</v>
+      <c r="E24" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:7">
-      <c r="A25" s="9">
-        <v>15</v>
+      <c r="A25" s="8">
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>30</v>
+      <c r="E25" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="12"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
+    <row r="26" s="1" customFormat="1" spans="1:7">
+      <c r="A26" s="8">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:1">
       <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>30</v>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A29" s="12"/>
+      <c r="B29" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4915,10 +4964,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4937,13 +4986,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -4965,8 +5014,12 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4974,51 +5027,47 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>268</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -5026,371 +5075,384 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A12" s="9">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>272</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="9">
-        <v>3</v>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="8">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>274</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="9">
-        <v>4</v>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="8">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>276</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A15" s="9">
-        <v>5</v>
+      <c r="A15" s="8">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
+        <v>278</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="9">
-        <v>6</v>
+      <c r="A16" s="8">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
+        <v>280</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="9">
-        <v>7</v>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A17" s="8">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
+        <v>282</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="9">
-        <v>8</v>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A18" s="8">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
+        <v>284</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="9">
-        <v>9</v>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="8">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>286</v>
+        <v>54</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A20" s="9">
-        <v>10</v>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A20" s="8">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
+        <v>287</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="9">
-        <v>11</v>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A21" s="8">
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
+        <v>249</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
-      <c r="A22" s="9">
-        <v>12</v>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A22" s="8">
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>30</v>
+        <v>259</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:7">
-      <c r="A23" s="9">
-        <v>13</v>
+      <c r="A23" s="8">
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>30</v>
+        <v>261</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:7">
-      <c r="A24" s="9">
-        <v>14</v>
+      <c r="A24" s="8">
+        <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>30</v>
+        <v>290</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A25" s="9">
+    <row r="25" s="1" customFormat="1" spans="1:7">
+      <c r="A25" s="8">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A26" s="8">
         <v>15</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
+      <c r="D26" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="12"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
+    <row r="27" s="1" customFormat="1" spans="1:1">
       <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="D28" s="16" t="s">
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A29" s="12"/>
+      <c r="B29" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>30</v>
+      <c r="D29" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
